--- a/Dashboards/INQ.xlsx
+++ b/Dashboards/INQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peterB\repositories\hobby projecten\BlockTanksStats\Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889386D0-3244-4658-B99D-63833E8EEEDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F77E0-D028-4818-8A7E-7B08BC431494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XP Per Day" sheetId="4" r:id="rId1"/>
@@ -61,15 +61,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Totals</t>
   </si>
   <si>
     <t xml:space="preserve">Clan total </t>
-  </si>
-  <si>
-    <t>Average clan xp per day:</t>
   </si>
 </sst>
 </file>
@@ -235,43 +232,43 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9451.8943749996706</c:v>
+                  <c:v>1193.016916666528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4637.4346666662605</c:v>
+                  <c:v>5301.9557499997509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7370.6069166665447</c:v>
+                  <c:v>3194.3471666668447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17733.568749999937</c:v>
+                  <c:v>5395.4693333335963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10253.38583333317</c:v>
+                  <c:v>6121.3568333329704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18956.434416666321</c:v>
+                  <c:v>3807.9081666667416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34413.104750000493</c:v>
+                  <c:v>2115.1167500000702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18015.126833333794</c:v>
+                  <c:v>799.36741666658713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24145.552083333419</c:v>
+                  <c:v>2212.6924166670015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21067.368416667003</c:v>
+                  <c:v>1965.2891666666758</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20906.630666666591</c:v>
+                  <c:v>2424.8029166665469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13819.66908333326</c:v>
+                  <c:v>280.22050000005299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27339.039916667745</c:v>
+                  <c:v>3453.7570000000646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24814,19 +24811,19 @@
             <v>Timestamp</v>
           </cell>
           <cell r="B1" t="str">
-            <v>cube</v>
+            <v>ATTV_BRO</v>
           </cell>
           <cell r="C1" t="str">
-            <v>ATTV_BRO</v>
+            <v>Doctor Surviv</v>
           </cell>
           <cell r="D1" t="str">
-            <v>Doctor Surviv</v>
+            <v>gamergod</v>
           </cell>
           <cell r="E1" t="str">
-            <v>Spk_JK</v>
+            <v>hi whats up</v>
           </cell>
           <cell r="F1" t="str">
-            <v>Jayden_funeez</v>
+            <v>BEST OF DA BEST</v>
           </cell>
           <cell r="G1" t="str">
             <v>Benjamin1124</v>
@@ -24835,146 +24832,122 @@
             <v>Tankking</v>
           </cell>
           <cell r="I1" t="str">
-            <v>hi whats up</v>
+            <v>King21345</v>
           </cell>
           <cell r="J1" t="str">
-            <v>Visitor</v>
+            <v>Ari_lollipop</v>
           </cell>
           <cell r="K1" t="str">
+            <v>jjboi</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="M1" t="str">
             <v>dynamite</v>
           </cell>
-          <cell r="L1" t="str">
-            <v>Ari_lollipop</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>V</v>
-          </cell>
           <cell r="N1" t="str">
-            <v>Jason12345</v>
+            <v>Spk_JK</v>
           </cell>
           <cell r="O1" t="str">
-            <v>King21345</v>
+            <v>Aqua</v>
           </cell>
           <cell r="P1" t="str">
-            <v>Aqua</v>
+            <v>kangaroo</v>
           </cell>
           <cell r="Q1" t="str">
-            <v>jjboi</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>BEST OF DA BEST</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>gamergod</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>kangaroo</v>
-          </cell>
-          <cell r="U1" t="str">
             <v>Kungflu</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44311</v>
+            <v>44332</v>
           </cell>
           <cell r="B2">
-            <v>7580.0335416665703</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>-</v>
+            <v>340.85083333333</v>
+          </cell>
+          <cell r="C2">
+            <v>305.98508333333302</v>
+          </cell>
+          <cell r="D2">
+            <v>302.042166666593</v>
           </cell>
           <cell r="E2">
             <v>0</v>
           </cell>
-          <cell r="F2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>-</v>
+          <cell r="F2">
+            <v>244.138833333272</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
           </cell>
           <cell r="H2">
-            <v>1871.8608333330999</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>-</v>
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
           </cell>
           <cell r="M2" t="str">
             <v>-</v>
           </cell>
-          <cell r="N2">
+          <cell r="N2" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="O2">
             <v>0</v>
           </cell>
-          <cell r="O2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="U2" t="str">
-            <v>-</v>
+          <cell r="P2">
+            <v>0</v>
+          </cell>
+          <cell r="Q2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44312</v>
+            <v>44333</v>
           </cell>
           <cell r="B3">
-            <v>4637.4346666662605</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>-</v>
+            <v>2327.05691666645</v>
+          </cell>
+          <cell r="C3">
+            <v>1885.72166666667</v>
+          </cell>
+          <cell r="D3">
+            <v>342.49483333330102</v>
           </cell>
           <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>-</v>
+            <v>571.02233333332697</v>
+          </cell>
+          <cell r="F3">
+            <v>1.82574999995995</v>
+          </cell>
+          <cell r="G3">
+            <v>56.215999999985797</v>
           </cell>
           <cell r="H3">
             <v>0</v>
           </cell>
-          <cell r="I3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>-</v>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>117.618250000057</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>0</v>
           </cell>
           <cell r="M3" t="str">
             <v>-</v>
@@ -24982,49 +24955,37 @@
           <cell r="N3" t="str">
             <v>-</v>
           </cell>
-          <cell r="O3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="U3" t="str">
-            <v>-</v>
+          <cell r="O3">
+            <v>0</v>
+          </cell>
+          <cell r="P3">
+            <v>0</v>
+          </cell>
+          <cell r="Q3">
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44313</v>
+            <v>44334</v>
           </cell>
           <cell r="B4">
-            <v>5759.6318333332802</v>
+            <v>60.1995833333348</v>
           </cell>
           <cell r="C4">
-            <v>697.93999999994401</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>-</v>
+            <v>45.149583333346499</v>
+          </cell>
+          <cell r="D4">
+            <v>2373.8530000000001</v>
           </cell>
           <cell r="E4">
+            <v>35.787083333358098</v>
+          </cell>
+          <cell r="F4">
             <v>0</v>
           </cell>
-          <cell r="F4" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>-</v>
+          <cell r="G4">
+            <v>200.96800000002199</v>
           </cell>
           <cell r="H4">
             <v>0</v>
@@ -25032,147 +24993,123 @@
           <cell r="I4">
             <v>0</v>
           </cell>
-          <cell r="J4" t="str">
-            <v>-</v>
+          <cell r="J4">
+            <v>209.75183333340101</v>
           </cell>
           <cell r="K4">
-            <v>0</v>
+            <v>268.63808333338199</v>
           </cell>
           <cell r="L4">
             <v>0</v>
           </cell>
-          <cell r="M4">
-            <v>114.97891666664501</v>
-          </cell>
-          <cell r="N4">
-            <v>795.946750000002</v>
+          <cell r="M4" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>-</v>
           </cell>
           <cell r="O4">
             <v>0</v>
           </cell>
           <cell r="P4">
-            <v>2.1094166666734901</v>
-          </cell>
-          <cell r="Q4" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R4">
             <v>0</v>
           </cell>
-          <cell r="S4">
+          <cell r="Q4">
             <v>0</v>
-          </cell>
-          <cell r="T4">
-            <v>0</v>
-          </cell>
-          <cell r="U4" t="str">
-            <v>-</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44314</v>
+            <v>44335</v>
           </cell>
           <cell r="B5">
-            <v>9363.2593333333498</v>
+            <v>2004.9845833336001</v>
           </cell>
           <cell r="C5">
-            <v>4808.0320833333499</v>
+            <v>1798.6767499999801</v>
           </cell>
           <cell r="D5">
-            <v>1570.0264999999999</v>
-          </cell>
-          <cell r="E5" t="str">
+            <v>833.23124999995298</v>
+          </cell>
+          <cell r="E5">
+            <v>182.35908333334299</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>576.21766666672102</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5" t="str">
             <v>-</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>256.08583333331597</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K5">
-            <v>569.59591666661402</v>
-          </cell>
-          <cell r="L5">
-            <v>374.85058333328902</v>
-          </cell>
-          <cell r="M5">
-            <v>493.68133333331201</v>
           </cell>
           <cell r="N5" t="str">
             <v>-</v>
           </cell>
           <cell r="O5">
-            <v>245.79608333331899</v>
+            <v>0</v>
           </cell>
           <cell r="P5">
-            <v>52.241083333385099</v>
-          </cell>
-          <cell r="Q5" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R5">
             <v>0</v>
           </cell>
-          <cell r="S5">
+          <cell r="Q5">
             <v>0</v>
-          </cell>
-          <cell r="T5">
-            <v>0</v>
-          </cell>
-          <cell r="U5" t="str">
-            <v>-</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44315</v>
+            <v>44336</v>
           </cell>
           <cell r="B6">
-            <v>4869.3500833332</v>
+            <v>5320.84291666641</v>
           </cell>
           <cell r="C6">
-            <v>3545.3663333333002</v>
+            <v>376.42083333333699</v>
           </cell>
           <cell r="D6">
-            <v>740.71233333338705</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>-</v>
+            <v>137.148916666628</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
           </cell>
           <cell r="H6">
+            <v>286.94416666659498</v>
+          </cell>
+          <cell r="I6">
             <v>0</v>
           </cell>
-          <cell r="I6">
-            <v>175.03716666664599</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>-</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
           <cell r="K6">
-            <v>922.91991666663603</v>
+            <v>0</v>
           </cell>
           <cell r="L6">
             <v>0</v>
           </cell>
-          <cell r="M6">
-            <v>0</v>
+          <cell r="M6" t="str">
+            <v>-</v>
           </cell>
           <cell r="N6" t="str">
             <v>-</v>
@@ -25183,61 +25120,49 @@
           <cell r="P6">
             <v>0</v>
           </cell>
-          <cell r="Q6" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R6">
+          <cell r="Q6">
             <v>0</v>
-          </cell>
-          <cell r="S6">
-            <v>0</v>
-          </cell>
-          <cell r="T6">
-            <v>0</v>
-          </cell>
-          <cell r="U6" t="str">
-            <v>-</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44316</v>
+            <v>44337</v>
           </cell>
           <cell r="B7">
-            <v>7795.7768333334798</v>
+            <v>3741.5374166667398</v>
           </cell>
           <cell r="C7">
-            <v>2937.1819999996801</v>
+            <v>0</v>
           </cell>
           <cell r="D7">
-            <v>7699.49550000001</v>
+            <v>0</v>
           </cell>
           <cell r="E7">
-            <v>68.332749999943104</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>-</v>
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
           </cell>
           <cell r="H7">
             <v>0</v>
           </cell>
           <cell r="I7">
-            <v>18.885166666644999</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>-</v>
+            <v>66.370750000001806</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
           </cell>
           <cell r="K7">
             <v>0</v>
           </cell>
           <cell r="L7">
-            <v>436.76216666656501</v>
-          </cell>
-          <cell r="M7">
             <v>0</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>-</v>
           </cell>
           <cell r="N7" t="str">
             <v>-</v>
@@ -25248,61 +25173,49 @@
           <cell r="P7">
             <v>0</v>
           </cell>
-          <cell r="Q7" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R7">
+          <cell r="Q7">
             <v>0</v>
-          </cell>
-          <cell r="S7">
-            <v>0</v>
-          </cell>
-          <cell r="T7">
-            <v>0</v>
-          </cell>
-          <cell r="U7" t="str">
-            <v>-</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44317</v>
+            <v>44338</v>
           </cell>
           <cell r="B8">
-            <v>12790.1474166669</v>
+            <v>33.276000000070702</v>
           </cell>
           <cell r="C8">
-            <v>905.49258333339799</v>
+            <v>791.01858333343898</v>
           </cell>
           <cell r="D8">
-            <v>3902.6490833333801</v>
+            <v>173.818499999935</v>
           </cell>
           <cell r="E8">
-            <v>15097.3028333333</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>-</v>
+            <v>26.1636666666599</v>
+          </cell>
+          <cell r="F8">
+            <v>679.13558333332105</v>
+          </cell>
+          <cell r="G8">
+            <v>347.02549999998803</v>
           </cell>
           <cell r="H8">
             <v>0</v>
           </cell>
           <cell r="I8">
-            <v>926.56900000001701</v>
-          </cell>
-          <cell r="J8" t="str">
+            <v>64.678916666656704</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8" t="str">
             <v>-</v>
-          </cell>
-          <cell r="K8">
-            <v>1.7785000000149001</v>
-          </cell>
-          <cell r="L8">
-            <v>498.60516666679098</v>
-          </cell>
-          <cell r="M8">
-            <v>290.56016666669098</v>
           </cell>
           <cell r="N8" t="str">
             <v>-</v>
@@ -25313,43 +25226,31 @@
           <cell r="P8">
             <v>0</v>
           </cell>
-          <cell r="Q8" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R8">
+          <cell r="Q8">
             <v>0</v>
-          </cell>
-          <cell r="S8">
-            <v>0</v>
-          </cell>
-          <cell r="T8">
-            <v>0</v>
-          </cell>
-          <cell r="U8" t="str">
-            <v>-</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44318</v>
+            <v>44339</v>
           </cell>
           <cell r="B9">
-            <v>10721.4709166671</v>
+            <v>0</v>
           </cell>
           <cell r="C9">
-            <v>5679.3550833334402</v>
+            <v>726.04941666661705</v>
           </cell>
           <cell r="D9">
-            <v>666.75158333338902</v>
+            <v>0</v>
           </cell>
           <cell r="E9">
-            <v>843.71949999994797</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>-</v>
+            <v>17.091083333361802</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
           </cell>
           <cell r="H9">
             <v>0</v>
@@ -25357,61 +25258,49 @@
           <cell r="I9">
             <v>0</v>
           </cell>
-          <cell r="J9" t="str">
-            <v>-</v>
+          <cell r="J9">
+            <v>0</v>
           </cell>
           <cell r="K9">
             <v>0</v>
           </cell>
           <cell r="L9">
-            <v>0</v>
-          </cell>
-          <cell r="M9">
-            <v>0</v>
+            <v>56.226916666608297</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>-</v>
           </cell>
           <cell r="N9" t="str">
             <v>-</v>
           </cell>
           <cell r="O9">
-            <v>103.829749999917</v>
+            <v>0</v>
           </cell>
           <cell r="P9">
             <v>0</v>
           </cell>
-          <cell r="Q9" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R9">
+          <cell r="Q9">
             <v>0</v>
-          </cell>
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>0</v>
-          </cell>
-          <cell r="U9" t="str">
-            <v>-</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44319</v>
+            <v>44340</v>
           </cell>
           <cell r="B10">
-            <v>9025.2305833335195</v>
+            <v>1765.69125000026</v>
           </cell>
           <cell r="C10">
-            <v>11097.0964999999</v>
+            <v>17.7092500000144</v>
           </cell>
           <cell r="D10">
-            <v>2764.72641666664</v>
+            <v>0</v>
           </cell>
           <cell r="E10">
-            <v>476.79333333339298</v>
+            <v>429.29191666672699</v>
           </cell>
           <cell r="F10">
-            <v>536.468583333335</v>
+            <v>0</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -25422,17 +25311,17 @@
           <cell r="I10">
             <v>0</v>
           </cell>
-          <cell r="J10" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K10" t="str">
-            <v>-</v>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
           </cell>
           <cell r="L10">
             <v>0</v>
           </cell>
-          <cell r="M10">
-            <v>0</v>
+          <cell r="M10" t="str">
+            <v>-</v>
           </cell>
           <cell r="N10" t="str">
             <v>-</v>
@@ -25441,63 +25330,51 @@
             <v>0</v>
           </cell>
           <cell r="P10">
-            <v>245.23666666663399</v>
+            <v>0</v>
           </cell>
           <cell r="Q10">
-            <v>0</v>
-          </cell>
-          <cell r="R10">
-            <v>0</v>
-          </cell>
-          <cell r="S10">
-            <v>0</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
             <v>0</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44320</v>
+            <v>44341</v>
           </cell>
           <cell r="B11">
-            <v>9017.4498333338397</v>
+            <v>190.95083333342299</v>
           </cell>
           <cell r="C11">
-            <v>5794.3232499998903</v>
+            <v>1503.3496666666399</v>
           </cell>
           <cell r="D11">
-            <v>1584.3593333333799</v>
+            <v>240.357666666619</v>
           </cell>
           <cell r="E11">
-            <v>1561.2771666666299</v>
+            <v>20.286583333334399</v>
           </cell>
           <cell r="F11">
-            <v>1300.4789166666101</v>
+            <v>0</v>
           </cell>
           <cell r="G11">
-            <v>1222.50708333335</v>
+            <v>0</v>
           </cell>
           <cell r="H11">
             <v>0</v>
           </cell>
           <cell r="I11">
-            <v>7.4392499999958002</v>
-          </cell>
-          <cell r="J11" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>10.3444166666595</v>
+          </cell>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
+          <cell r="M11" t="str">
             <v>-</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L11">
-            <v>42.424916666699502</v>
-          </cell>
-          <cell r="M11">
-            <v>424.59833333332699</v>
           </cell>
           <cell r="N11" t="str">
             <v>-</v>
@@ -25509,60 +25386,48 @@
             <v>0</v>
           </cell>
           <cell r="Q11">
-            <v>112.51033333328</v>
-          </cell>
-          <cell r="R11">
-            <v>0</v>
-          </cell>
-          <cell r="S11">
-            <v>0</v>
-          </cell>
-          <cell r="T11">
-            <v>0</v>
-          </cell>
-          <cell r="U11">
             <v>0</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44321</v>
+            <v>44342</v>
           </cell>
           <cell r="B12">
-            <v>8013.5511666665498</v>
+            <v>0</v>
           </cell>
           <cell r="C12">
-            <v>8927.9281666665302</v>
+            <v>995.68375000002504</v>
           </cell>
           <cell r="D12">
-            <v>456.771499999973</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>-</v>
+            <v>1053.1411666665199</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
           </cell>
           <cell r="F12">
-            <v>2622.82933333335</v>
+            <v>0</v>
           </cell>
           <cell r="G12">
-            <v>58.620833333348799</v>
+            <v>0</v>
           </cell>
           <cell r="H12">
             <v>0</v>
           </cell>
           <cell r="I12">
-            <v>794.820833333476</v>
-          </cell>
-          <cell r="J12" t="str">
+            <v>375.978000000002</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+          <cell r="M12" t="str">
             <v>-</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L12">
-            <v>4.0743333332939002</v>
-          </cell>
-          <cell r="M12">
-            <v>0</v>
           </cell>
           <cell r="N12" t="str">
             <v>-</v>
@@ -25574,60 +25439,48 @@
             <v>0</v>
           </cell>
           <cell r="Q12">
-            <v>28.034500000066998</v>
-          </cell>
-          <cell r="R12">
-            <v>0</v>
-          </cell>
-          <cell r="S12">
-            <v>0</v>
-          </cell>
-          <cell r="T12">
-            <v>0</v>
-          </cell>
-          <cell r="U12">
             <v>0</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>44322</v>
+            <v>44343</v>
           </cell>
           <cell r="B13">
-            <v>5649.2933333333303</v>
+            <v>10.8425833333749</v>
           </cell>
           <cell r="C13">
-            <v>5634.1717499999704</v>
+            <v>154.05083333334099</v>
           </cell>
           <cell r="D13">
-            <v>226.83808333333499</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>-</v>
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>18.3462500000023</v>
           </cell>
           <cell r="F13">
-            <v>1185.89175</v>
+            <v>0</v>
           </cell>
           <cell r="G13">
-            <v>326.51675000006799</v>
+            <v>96.9808333333348</v>
           </cell>
           <cell r="H13">
-            <v>573.331833333242</v>
+            <v>0</v>
           </cell>
           <cell r="I13">
-            <v>142.66616666666201</v>
+            <v>0</v>
           </cell>
           <cell r="J13">
             <v>0</v>
           </cell>
-          <cell r="K13" t="str">
-            <v>-</v>
+          <cell r="K13">
+            <v>0</v>
           </cell>
           <cell r="L13">
             <v>0</v>
           </cell>
-          <cell r="M13">
-            <v>0</v>
+          <cell r="M13" t="str">
+            <v>-</v>
           </cell>
           <cell r="N13" t="str">
             <v>-</v>
@@ -25639,122 +25492,98 @@
             <v>0</v>
           </cell>
           <cell r="Q13">
-            <v>80.959416666650199</v>
-          </cell>
-          <cell r="R13">
-            <v>0</v>
-          </cell>
-          <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>0</v>
-          </cell>
-          <cell r="U13">
             <v>0</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>44323</v>
+            <v>44344</v>
           </cell>
           <cell r="B14">
-            <v>9274.4045000004098</v>
+            <v>1253.2681666667299</v>
           </cell>
           <cell r="C14">
-            <v>13022.9180000006</v>
+            <v>1620.06149999998</v>
           </cell>
           <cell r="D14">
-            <v>535.25658333333502</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>-</v>
+            <v>41.077833333285497</v>
+          </cell>
+          <cell r="E14">
+            <v>240.10408333333899</v>
           </cell>
           <cell r="F14">
-            <v>11.601416666671801</v>
+            <v>92.235416666720994</v>
           </cell>
           <cell r="G14">
-            <v>2206.9515833333398</v>
+            <v>207.010000000009</v>
           </cell>
           <cell r="H14">
             <v>0</v>
           </cell>
           <cell r="I14">
-            <v>87.947583333356306</v>
+            <v>0</v>
           </cell>
           <cell r="J14">
-            <v>2024.0489999999099</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>-</v>
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
           </cell>
           <cell r="L14">
             <v>0</v>
           </cell>
-          <cell r="M14">
-            <v>0</v>
+          <cell r="M14" t="str">
+            <v>-</v>
           </cell>
           <cell r="N14" t="str">
             <v>-</v>
           </cell>
           <cell r="O14">
-            <v>175.91125000012099</v>
+            <v>0</v>
           </cell>
           <cell r="P14">
             <v>0</v>
           </cell>
           <cell r="Q14">
-            <v>0</v>
-          </cell>
-          <cell r="R14">
-            <v>0</v>
-          </cell>
-          <cell r="S14">
-            <v>0</v>
-          </cell>
-          <cell r="T14">
-            <v>0</v>
-          </cell>
-          <cell r="U14">
             <v>0</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>44324</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>-</v>
+            <v>44345</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>194.19049999999601</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
           </cell>
           <cell r="M15" t="str">
             <v>-</v>
@@ -25762,26 +25591,14 @@
           <cell r="N15" t="str">
             <v>-</v>
           </cell>
-          <cell r="O15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="P15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="Q15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="R15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="S15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="T15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="U15" t="str">
-            <v>-</v>
+          <cell r="O15">
+            <v>0</v>
+          </cell>
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+          <cell r="Q15">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -25803,46 +25620,52 @@
             <v>Total KD</v>
           </cell>
           <cell r="B1" t="str">
-            <v>8,7 (130/15)</v>
+            <v>9,4 (47/5)</v>
           </cell>
           <cell r="C1" t="str">
-            <v>7,3 (102/14)</v>
+            <v>3,0 (6/2)</v>
           </cell>
           <cell r="D1" t="str">
-            <v>2,8 (83/30)</v>
+            <v>2,3 (1138/489)</v>
           </cell>
           <cell r="E1" t="str">
-            <v>2,5 (4414/1781)</v>
+            <v>2,0 (24/12)</v>
           </cell>
           <cell r="F1" t="str">
-            <v>2,3 (7147/3137)</v>
+            <v>2,0 (32/16)</v>
           </cell>
           <cell r="G1" t="str">
-            <v>1,8 (868/483)</v>
+            <v>1,9 (811/431)</v>
           </cell>
           <cell r="H1" t="str">
-            <v>1,7 (114/66)</v>
+            <v>1,9 (60/32)</v>
           </cell>
           <cell r="I1" t="str">
-            <v>1,6 (38/24)</v>
+            <v>1,7 (327/191)</v>
           </cell>
           <cell r="J1" t="str">
-            <v>1,6 (120/76)</v>
+            <v>1,6 (16/10)</v>
           </cell>
           <cell r="K1" t="str">
-            <v>1,5 (23/15)</v>
+            <v>1,3 (78/62)</v>
           </cell>
           <cell r="L1" t="str">
-            <v>1,5 (62/42)</v>
+            <v>0,9 (83/88)</v>
           </cell>
           <cell r="M1" t="str">
-            <v>1,4 (161/115)</v>
+            <v>0,0 (0/0)</v>
           </cell>
           <cell r="N1" t="str">
-            <v>1,3 (397/302)</v>
+            <v>0,0 (0/0)</v>
           </cell>
           <cell r="O1" t="str">
-            <v>1,3 (295/228)</v>
+            <v>0,0 (0/0)</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>0,0 (0/0)</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>0,0 (0/0)</v>
           </cell>
         </row>
         <row r="2">
@@ -25853,142 +25676,160 @@
             <v>Tankking</v>
           </cell>
           <cell r="C2" t="str">
-            <v>dynamite</v>
+            <v>V</v>
           </cell>
           <cell r="D2" t="str">
-            <v>V</v>
+            <v>ATTV_BRO</v>
           </cell>
           <cell r="E2" t="str">
-            <v>ATTV_BRO</v>
+            <v>Ari_lollipop</v>
           </cell>
           <cell r="F2" t="str">
-            <v>cube</v>
+            <v>King21345</v>
           </cell>
           <cell r="G2" t="str">
             <v>Doctor Surviv</v>
           </cell>
           <cell r="H2" t="str">
-            <v>Ari_lollipop</v>
+            <v>BEST OF DA BEST</v>
           </cell>
           <cell r="I2" t="str">
-            <v>King21345</v>
+            <v>gamergod</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Visitor</v>
+            <v>jjboi</v>
           </cell>
           <cell r="K2" t="str">
+            <v>Benjamin1124</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>hi whats up</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>dynamite</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>Spk_JK</v>
+          </cell>
+          <cell r="O2" t="str">
             <v>Aqua</v>
           </cell>
-          <cell r="L2" t="str">
-            <v>Jason12345</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>Spk_JK</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>Jayden_funeez</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>Benjamin1124</v>
+          <cell r="P2" t="str">
+            <v>kangaroo</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>Kungflu</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44311</v>
+            <v>44332</v>
           </cell>
           <cell r="B3" t="str">
-            <v>6,5(98/15)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="C3" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="D3" t="str">
-            <v>-(/)</v>
+            <v>1,8(27/15)</v>
           </cell>
           <cell r="E3" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="F3" t="str">
-            <v>1,6(539/344)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G3" t="str">
-            <v>-(/)</v>
+            <v>1,9(21/11)</v>
           </cell>
           <cell r="H3" t="str">
-            <v>-(/)</v>
+            <v>2,0(12/6)</v>
           </cell>
           <cell r="I3" t="str">
-            <v>-(/)</v>
+            <v>2,8(22/8)</v>
           </cell>
           <cell r="J3" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="K3" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="L3" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="M3" t="str">
-            <v>0,0(0/0)</v>
+            <v>-(/)</v>
           </cell>
           <cell r="N3" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="O3" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44312</v>
+            <v>44333</v>
           </cell>
           <cell r="B4" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="C4" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>2,4(134/57)</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>1,1(11/10)</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>2,0(114/56)</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>0,0(0/1)</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>2,0(20/10)</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>0,7(4/6)</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>1,0(34/33)</v>
+          </cell>
+          <cell r="M4" t="str">
             <v>-(/)</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>1,9(370/197)</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>0,0(0/0)</v>
           </cell>
           <cell r="N4" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="O4" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44313</v>
+            <v>44334</v>
           </cell>
           <cell r="B5" t="str">
             <v>0,0(0/0)</v>
@@ -25997,78 +25838,84 @@
             <v>0,0(0/0)</v>
           </cell>
           <cell r="D5" t="str">
-            <v>13,0(13/1)</v>
+            <v>5,0(5/1)</v>
           </cell>
           <cell r="E5" t="str">
-            <v>2,9(50/17)</v>
+            <v>12,0(12/1)</v>
           </cell>
           <cell r="F5" t="str">
-            <v>1,7(396/229)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-(/)</v>
+            <v>0,7(4/6)</v>
           </cell>
           <cell r="H5" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="I5" t="str">
-            <v>0,0(0/0)</v>
+            <v>1,7(129/78)</v>
           </cell>
           <cell r="J5" t="str">
+            <v>1,6(16/10)</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>1,8(23/13)</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>0,7(2/3)</v>
+          </cell>
+          <cell r="M5" t="str">
             <v>-(/)</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>0,0(0/0)</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>1,5(62/42)</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>0,0(0/0)</v>
           </cell>
           <cell r="N5" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="O5" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44314</v>
+            <v>44335</v>
           </cell>
           <cell r="B6" t="str">
+            <v>7,8(31/4)</v>
+          </cell>
+          <cell r="C6" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="C6" t="str">
-            <v>6,1(49/8)</v>
-          </cell>
           <cell r="D6" t="str">
-            <v>2,1(25/12)</v>
+            <v>1,7(137/80)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>2,4(330/140)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2,0(695/348)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>1,7(107/63)</v>
+            <v>1,9(134/70)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>2,0(36/18)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>1,9(17/9)</v>
+            <v>2,3(44/19)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>0,8(3/4)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="L6" t="str">
-            <v>-(/)</v>
+            <v>0,5(8/15)</v>
           </cell>
           <cell r="M6" t="str">
             <v>-(/)</v>
@@ -26077,45 +25924,51 @@
             <v>-(/)</v>
           </cell>
           <cell r="O6" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P6" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44315</v>
+            <v>44336</v>
           </cell>
           <cell r="B7" t="str">
+            <v>16,0(16/1)</v>
+          </cell>
+          <cell r="C7" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="C7" t="str">
-            <v>8,8(53/6)</v>
-          </cell>
           <cell r="D7" t="str">
+            <v>2,3(355/155)</v>
+          </cell>
+          <cell r="E7" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="E7" t="str">
-            <v>3,0(229/77)</v>
-          </cell>
           <cell r="F7" t="str">
-            <v>2,5(342/136)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G7" t="str">
-            <v>1,3(55/41)</v>
+            <v>1,9(40/21)</v>
           </cell>
           <cell r="H7" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="I7" t="str">
+            <v>2,3(14/6)</v>
+          </cell>
+          <cell r="J7" t="str">
             <v>0,0(0/0)</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>-(/)</v>
           </cell>
           <cell r="K7" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="L7" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="M7" t="str">
             <v>-(/)</v>
@@ -26124,12 +25977,18 @@
             <v>-(/)</v>
           </cell>
           <cell r="O7" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44316</v>
+            <v>44337</v>
           </cell>
           <cell r="B8" t="str">
             <v>0,0(0/0)</v>
@@ -26138,45 +25997,51 @@
             <v>0,0(0/0)</v>
           </cell>
           <cell r="D8" t="str">
+            <v>2,8(258/92)</v>
+          </cell>
+          <cell r="E8" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="E8" t="str">
-            <v>2,8(226/80)</v>
-          </cell>
           <cell r="F8" t="str">
-            <v>2,0(523/257)</v>
+            <v>1,4(7/5)</v>
           </cell>
           <cell r="G8" t="str">
-            <v>1,1(12/11)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="H8" t="str">
-            <v>2,0(38/19)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="I8" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="J8" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="K8" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="L8" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="M8" t="str">
             <v>-(/)</v>
-          </cell>
-          <cell r="M8" t="str">
-            <v>0,4(4/9)</v>
           </cell>
           <cell r="N8" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="O8" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P8" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44317</v>
+            <v>44338</v>
           </cell>
           <cell r="B9" t="str">
             <v>0,0(0/0)</v>
@@ -26185,110 +26050,122 @@
             <v>0,0(0/0)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>2,2(22/10)</v>
+            <v>1,0(3/3)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>2,2(67/30)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>3,5(848/244)</v>
+            <v>1,2(6/5)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>2,2(257/116)</v>
+            <v>1,6(81/51)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>1,4(35/25)</v>
+            <v>1,6(38/24)</v>
           </cell>
           <cell r="I9" t="str">
+            <v>2,0(16/8)</v>
+          </cell>
+          <cell r="J9" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="J9" t="str">
+          <cell r="K9" t="str">
+            <v>0,7(21/29)</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>3,0(3/1)</v>
+          </cell>
+          <cell r="M9" t="str">
             <v>-(/)</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>0,0(0/0)</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>-(/)</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>0,7(4/6)</v>
           </cell>
           <cell r="N9" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="O9" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P9" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44318</v>
+            <v>44339</v>
           </cell>
           <cell r="B10" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="C10" t="str">
-            <v>0,0(0/0)</v>
+            <v>3,0(6/2)</v>
           </cell>
           <cell r="D10" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="E10" t="str">
-            <v>2,3(377/161)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="F10" t="str">
-            <v>2,2(747/346)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G10" t="str">
-            <v>1,5(49/32)</v>
+            <v>1,7(52/30)</v>
           </cell>
           <cell r="H10" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="I10" t="str">
-            <v>1,2(10/8)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="J10" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="K10" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="L10" t="str">
+            <v>0,5(1/2)</v>
+          </cell>
+          <cell r="M10" t="str">
             <v>-(/)</v>
-          </cell>
-          <cell r="M10" t="str">
-            <v>1,0(42/41)</v>
           </cell>
           <cell r="N10" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="O10" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P10" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44319</v>
+            <v>44340</v>
           </cell>
           <cell r="B11" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="D11" t="str">
+            <v>3,0(112/37)</v>
+          </cell>
+          <cell r="E11" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="E11" t="str">
-            <v>2,7(764/281)</v>
-          </cell>
           <cell r="F11" t="str">
-            <v>3,0(589/195)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G11" t="str">
-            <v>2,2(187/86)</v>
+            <v>2,0(2/1)</v>
           </cell>
           <cell r="H11" t="str">
             <v>0,0(0/0)</v>
@@ -26297,139 +26174,157 @@
             <v>0,0(0/0)</v>
           </cell>
           <cell r="J11" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>0,8(19/24)</v>
+          </cell>
+          <cell r="M11" t="str">
             <v>-(/)</v>
           </cell>
-          <cell r="K11" t="str">
-            <v>1,8(20/11)</v>
-          </cell>
-          <cell r="L11" t="str">
+          <cell r="N11" t="str">
             <v>-(/)</v>
           </cell>
-          <cell r="M11" t="str">
-            <v>1,6(26/16)</v>
-          </cell>
-          <cell r="N11" t="str">
-            <v>1,3(37/28)</v>
-          </cell>
           <cell r="O11" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P11" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q11" t="str">
             <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44320</v>
+            <v>44341</v>
           </cell>
           <cell r="B12" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>3,3(23/7)</v>
+            <v>1,9(15/8)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>2,9(371/126)</v>
+            <v>1,0(1/1)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>2,3(654/279)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>1,6(110/70)</v>
+            <v>2,3(132/58)</v>
           </cell>
           <cell r="H12" t="str">
-            <v>5,0(5/1)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="I12" t="str">
+            <v>0,5(12/25)</v>
+          </cell>
+          <cell r="J12" t="str">
             <v>0,0(0/0)</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>-(/)</v>
           </cell>
           <cell r="K12" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="L12" t="str">
+            <v>2,0(2/0)</v>
+          </cell>
+          <cell r="M12" t="str">
             <v>-(/)</v>
           </cell>
-          <cell r="M12" t="str">
-            <v>2,0(85/43)</v>
-          </cell>
           <cell r="N12" t="str">
-            <v>1,3(100/78)</v>
+            <v>-(/)</v>
           </cell>
           <cell r="O12" t="str">
-            <v>1,6(100/64)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P12" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q12" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>44321</v>
+            <v>44342</v>
           </cell>
           <cell r="B13" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="C13" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="D13" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="E13" t="str">
-            <v>2,1(662/312)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2,9(524/181)</v>
+            <v>3,2(19/6)</v>
           </cell>
           <cell r="G13" t="str">
-            <v>1,2(32/27)</v>
+            <v>1,8(70/38)</v>
           </cell>
           <cell r="H13" t="str">
-            <v>0,0(0/3)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="I13" t="str">
+            <v>1,8(66/37)</v>
+          </cell>
+          <cell r="J13" t="str">
             <v>0,0(0/0)</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v>-(/)</v>
           </cell>
           <cell r="K13" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="L13" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="M13" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="N13" t="str">
-            <v>1,5(190/127)</v>
+            <v>-(/)</v>
           </cell>
           <cell r="O13" t="str">
-            <v>0,2(2/8)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P13" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q13" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>44322</v>
+            <v>44343</v>
           </cell>
           <cell r="B14" t="str">
-            <v>32,0(32/0)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="D14" t="str">
+            <v>0,0(0/2)</v>
+          </cell>
+          <cell r="E14" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="E14" t="str">
-            <v>2,4(409/171)</v>
-          </cell>
           <cell r="F14" t="str">
-            <v>2,3(369/161)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G14" t="str">
-            <v>1,5(22/15)</v>
+            <v>0,8(14/18)</v>
           </cell>
           <cell r="H14" t="str">
             <v>0,0(0/0)</v>
@@ -26441,104 +26336,116 @@
             <v>0,0(0/0)</v>
           </cell>
           <cell r="K14" t="str">
-            <v>0,0(0/0)</v>
+            <v>1,2(10/8)</v>
           </cell>
           <cell r="L14" t="str">
-            <v>-(/)</v>
+            <v>1,0(2/2)</v>
           </cell>
           <cell r="M14" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="N14" t="str">
-            <v>1,0(69/67)</v>
+            <v>-(/)</v>
           </cell>
           <cell r="O14" t="str">
-            <v>0,6(23/36)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P14" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q14" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>44323</v>
+            <v>44344</v>
           </cell>
           <cell r="B15" t="str">
             <v>0,0(0/0)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="D15" t="str">
+            <v>2,4(92/39)</v>
+          </cell>
+          <cell r="E15" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="E15" t="str">
-            <v>2,4(929/386)</v>
-          </cell>
           <cell r="F15" t="str">
-            <v>2,5(551/220)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G15" t="str">
-            <v>1,7(37/22)</v>
+            <v>2,1(133/63)</v>
           </cell>
           <cell r="H15" t="str">
+            <v>10,0(10/1)</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>4,0(4/0)</v>
+          </cell>
+          <cell r="J15" t="str">
             <v>0,0(0/0)</v>
           </cell>
-          <cell r="I15" t="str">
-            <v>1,6(11/7)</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>1,6(120/76)</v>
-          </cell>
           <cell r="K15" t="str">
-            <v>0,0(0/0)</v>
+            <v>3,3(20/6)</v>
           </cell>
           <cell r="L15" t="str">
-            <v>-(/)</v>
+            <v>1,5(12/8)</v>
           </cell>
           <cell r="M15" t="str">
             <v>-(/)</v>
           </cell>
           <cell r="N15" t="str">
-            <v>0,5(1/2)</v>
+            <v>-(/)</v>
           </cell>
           <cell r="O15" t="str">
-            <v>1,4(170/120)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P15" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q15" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>44324</v>
+            <v>44345</v>
           </cell>
           <cell r="B16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="C16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="D16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="E16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="F16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="G16" t="str">
-            <v>-(/)</v>
+            <v>1,8(14/8)</v>
           </cell>
           <cell r="H16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="I16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="J16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="K16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="L16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
           </cell>
           <cell r="M16" t="str">
             <v>-(/)</v>
@@ -26547,7 +26454,13 @@
             <v>-(/)</v>
           </cell>
           <cell r="O16" t="str">
-            <v>-(/)</v>
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="P16" t="str">
+            <v>0,0(0/0)</v>
+          </cell>
+          <cell r="Q16" t="str">
+            <v>0,0(0/0)</v>
           </cell>
         </row>
       </sheetData>
@@ -26821,35 +26734,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F53F0CF-24F6-4B9E-A5BA-9A35AB5F07FC}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="38" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="38" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -26859,84 +26768,72 @@
       </c>
       <c r="C1" s="5">
         <f>SUM(C3:C16)</f>
-        <v>104497.03404166781</v>
+        <v>17049.501083333722</v>
       </c>
       <c r="D1" s="5">
-        <f t="shared" ref="D1:V1" si="0">SUM(D3:D16)</f>
-        <v>63049.805750000007</v>
+        <f t="shared" ref="D1:U1" si="0">SUM(D3:D16)</f>
+        <v>10414.067416666718</v>
       </c>
       <c r="E1" s="5">
         <f t="shared" si="0"/>
-        <v>20147.586916666831</v>
+        <v>5497.1653333328341</v>
       </c>
       <c r="F1" s="5">
         <f t="shared" si="0"/>
-        <v>18047.425583333214</v>
+        <v>1540.4520833334525</v>
       </c>
       <c r="G1" s="5">
         <f t="shared" si="0"/>
-        <v>5657.2699999999668</v>
+        <v>1017.335583333274</v>
       </c>
       <c r="H1" s="5">
         <f t="shared" si="0"/>
-        <v>3814.5962500001069</v>
+        <v>908.20033333333959</v>
       </c>
       <c r="I1" s="5">
         <f t="shared" si="0"/>
-        <v>2445.1926666663421</v>
+        <v>863.16183333331605</v>
       </c>
       <c r="J1" s="5">
         <f t="shared" si="0"/>
-        <v>2409.4510000001142</v>
+        <v>507.02766666666048</v>
       </c>
       <c r="K1" s="5">
         <f t="shared" si="0"/>
-        <v>2024.0489999999099</v>
+        <v>337.71450000011754</v>
       </c>
       <c r="L1" s="5">
         <f t="shared" si="0"/>
-        <v>1494.2943333332651</v>
+        <v>268.63808333338199</v>
       </c>
       <c r="M1" s="5">
         <f t="shared" si="0"/>
-        <v>1356.7171666666386</v>
+        <v>56.226916666608297</v>
       </c>
       <c r="N1" s="5">
         <f t="shared" si="0"/>
-        <v>1323.8187499999749</v>
+        <v>0</v>
       </c>
       <c r="O1" s="5">
         <f t="shared" si="0"/>
-        <v>795.946750000002</v>
+        <v>0</v>
       </c>
       <c r="P1" s="5">
         <f t="shared" si="0"/>
-        <v>525.53708333335692</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="5">
         <f t="shared" si="0"/>
-        <v>299.58716666669261</v>
+        <v>0</v>
       </c>
       <c r="R1" s="5">
         <f t="shared" si="0"/>
-        <v>221.50424999999723</v>
-      </c>
-      <c r="S1" s="5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T1" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U1" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V1" s="5">
-        <f>SUM(V3:V16)</f>
-        <v>0</v>
-      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -26956,23 +26853,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="str" cm="1">
-        <f t="array" ref="B2:V16">[1]XpPerDay!$A$1:$U$15</f>
+        <f t="array" ref="B2:R16">[1]XpPerDay!$A$1:$Q$15</f>
         <v>Timestamp</v>
       </c>
       <c r="C2" s="5" t="str">
-        <v>cube</v>
+        <v>ATTV_BRO</v>
       </c>
       <c r="D2" s="5" t="str">
-        <v>ATTV_BRO</v>
+        <v>Doctor Surviv</v>
       </c>
       <c r="E2" s="5" t="str">
-        <v>Doctor Surviv</v>
+        <v>gamergod</v>
       </c>
       <c r="F2" s="5" t="str">
-        <v>Spk_JK</v>
+        <v>hi whats up</v>
       </c>
       <c r="G2" s="5" t="str">
-        <v>Jayden_funeez</v>
+        <v>BEST OF DA BEST</v>
       </c>
       <c r="H2" s="5" t="str">
         <v>Benjamin1124</v>
@@ -26981,44 +26878,36 @@
         <v>Tankking</v>
       </c>
       <c r="J2" s="5" t="str">
-        <v>hi whats up</v>
+        <v>King21345</v>
       </c>
       <c r="K2" s="5" t="str">
-        <v>Visitor</v>
+        <v>Ari_lollipop</v>
       </c>
       <c r="L2" s="5" t="str">
+        <v>jjboi</v>
+      </c>
+      <c r="M2" s="5" t="str">
+        <v>V</v>
+      </c>
+      <c r="N2" s="5" t="str">
         <v>dynamite</v>
       </c>
-      <c r="M2" s="5" t="str">
-        <v>Ari_lollipop</v>
-      </c>
-      <c r="N2" s="5" t="str">
-        <v>V</v>
-      </c>
       <c r="O2" s="5" t="str">
-        <v>Jason12345</v>
+        <v>Spk_JK</v>
       </c>
       <c r="P2" s="5" t="str">
-        <v>King21345</v>
+        <v>Aqua</v>
       </c>
       <c r="Q2" s="5" t="str">
-        <v>Aqua</v>
+        <v>kangaroo</v>
       </c>
       <c r="R2" s="5" t="str">
-        <v>jjboi</v>
-      </c>
-      <c r="S2" s="5" t="str">
-        <v>BEST OF DA BEST</v>
-      </c>
-      <c r="T2" s="5" t="str">
-        <v>gamergod</v>
-      </c>
-      <c r="U2" s="5" t="str">
-        <v>kangaroo</v>
-      </c>
-      <c r="V2" s="5" t="str">
         <v>Kungflu</v>
       </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -27033,71 +26922,63 @@
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>SUM(C3:Z3)</f>
-        <v>9451.8943749996706</v>
+        <v>1193.016916666528</v>
       </c>
       <c r="B3" s="1">
-        <v>44311</v>
+        <v>44332</v>
       </c>
       <c r="C3" s="8">
-        <v>7580.0335416665703</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <v>-</v>
+        <v>340.85083333333</v>
+      </c>
+      <c r="D3" s="8">
+        <v>305.98508333333302</v>
+      </c>
+      <c r="E3" s="8">
+        <v>302.042166666593</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H3" s="8" t="str">
-        <v>-</v>
+      <c r="G3" s="8">
+        <v>244.138833333272</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>1871.8608333330999</v>
-      </c>
-      <c r="J3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="K3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="L3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="M3" s="8" t="str">
-        <v>-</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
       </c>
       <c r="N3" s="8" t="str">
         <v>-</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="8" t="str">
+        <v>-</v>
+      </c>
+      <c r="P3" s="8">
         <v>0</v>
       </c>
-      <c r="P3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="Q3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="R3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="T3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="U3" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="V3" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -27113,43 +26994,43 @@
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A15" si="1">SUM(C4:Z4)</f>
-        <v>4637.4346666662605</v>
+        <v>5301.9557499997509</v>
       </c>
       <c r="B4" s="1">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="C4" s="8">
-        <v>4637.4346666662605</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="E4" s="8" t="str">
-        <v>-</v>
+        <v>2327.05691666645</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1885.72166666667</v>
+      </c>
+      <c r="E4" s="8">
+        <v>342.49483333330102</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <v>-</v>
+        <v>571.02233333332697</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.82574999995995</v>
+      </c>
+      <c r="H4" s="8">
+        <v>56.215999999985797</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
       </c>
-      <c r="J4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="K4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="L4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="M4" s="8" t="str">
-        <v>-</v>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>117.618250000057</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="str">
         <v>-</v>
@@ -27157,27 +27038,19 @@
       <c r="O4" s="8" t="str">
         <v>-</v>
       </c>
-      <c r="P4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="Q4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="R4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="T4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="U4" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="V4" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -27193,28 +27066,28 @@
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
-        <v>7370.6069166665447</v>
+        <v>3194.3471666668447</v>
       </c>
       <c r="B5" s="1">
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="C5" s="8">
-        <v>5759.6318333332802</v>
+        <v>60.1995833333348</v>
       </c>
       <c r="D5" s="8">
-        <v>697.93999999994401</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <v>-</v>
+        <v>45.149583333346499</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2373.8530000000001</v>
       </c>
       <c r="F5" s="8">
+        <v>35.787083333358098</v>
+      </c>
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H5" s="8" t="str">
-        <v>-</v>
+      <c r="H5" s="8">
+        <v>200.96800000002199</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
@@ -27222,42 +27095,34 @@
       <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="str">
-        <v>-</v>
+      <c r="K5" s="8">
+        <v>209.75183333340101</v>
       </c>
       <c r="L5" s="8">
-        <v>0</v>
+        <v>268.63808333338199</v>
       </c>
       <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="8">
-        <v>114.97891666664501</v>
-      </c>
-      <c r="O5" s="8">
-        <v>795.946750000002</v>
+      <c r="N5" s="8" t="str">
+        <v>-</v>
+      </c>
+      <c r="O5" s="8" t="str">
+        <v>-</v>
       </c>
       <c r="P5" s="8">
         <v>0</v>
       </c>
       <c r="Q5" s="8">
-        <v>2.1094166666734901</v>
-      </c>
-      <c r="R5" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S5" s="8">
         <v>0</v>
       </c>
-      <c r="T5" s="8">
+      <c r="R5" s="8">
         <v>0</v>
       </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -27273,71 +27138,63 @@
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
-        <v>17733.568749999937</v>
+        <v>5395.4693333335963</v>
       </c>
       <c r="B6" s="1">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="C6" s="8">
-        <v>9363.2593333333498</v>
+        <v>2004.9845833336001</v>
       </c>
       <c r="D6" s="8">
-        <v>4808.0320833333499</v>
+        <v>1798.6767499999801</v>
       </c>
       <c r="E6" s="8">
-        <v>1570.0264999999999</v>
-      </c>
-      <c r="F6" s="8" t="str">
+        <v>833.23124999995298</v>
+      </c>
+      <c r="F6" s="8">
+        <v>182.35908333334299</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>576.21766666672102</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="str">
         <v>-</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H6" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>256.08583333331597</v>
-      </c>
-      <c r="K6" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="L6" s="8">
-        <v>569.59591666661402</v>
-      </c>
-      <c r="M6" s="8">
-        <v>374.85058333328902</v>
-      </c>
-      <c r="N6" s="8">
-        <v>493.68133333331201</v>
       </c>
       <c r="O6" s="8" t="str">
         <v>-</v>
       </c>
       <c r="P6" s="8">
-        <v>245.79608333331899</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="8">
-        <v>52.241083333385099</v>
-      </c>
-      <c r="R6" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S6" s="8">
         <v>0</v>
       </c>
-      <c r="T6" s="8">
+      <c r="R6" s="8">
         <v>0</v>
       </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -27353,46 +27210,46 @@
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
-        <v>10253.38583333317</v>
+        <v>6121.3568333329704</v>
       </c>
       <c r="B7" s="1">
-        <v>44315</v>
+        <v>44336</v>
       </c>
       <c r="C7" s="8">
-        <v>4869.3500833332</v>
+        <v>5320.84291666641</v>
       </c>
       <c r="D7" s="8">
-        <v>3545.3663333333002</v>
+        <v>376.42083333333699</v>
       </c>
       <c r="E7" s="8">
-        <v>740.71233333338705</v>
-      </c>
-      <c r="F7" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H7" s="8" t="str">
-        <v>-</v>
+        <v>137.148916666628</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
       </c>
       <c r="I7" s="8">
+        <v>286.94416666659498</v>
+      </c>
+      <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="8">
-        <v>175.03716666664599</v>
-      </c>
-      <c r="K7" s="8" t="str">
-        <v>-</v>
+      <c r="K7" s="8">
+        <v>0</v>
       </c>
       <c r="L7" s="8">
-        <v>922.91991666663603</v>
+        <v>0</v>
       </c>
       <c r="M7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="8">
-        <v>0</v>
+      <c r="N7" s="8" t="str">
+        <v>-</v>
       </c>
       <c r="O7" s="8" t="str">
         <v>-</v>
@@ -27403,21 +27260,13 @@
       <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S7" s="8">
+      <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
@@ -27433,46 +27282,46 @@
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
-        <v>18956.434416666321</v>
+        <v>3807.9081666667416</v>
       </c>
       <c r="B8" s="1">
-        <v>44316</v>
+        <v>44337</v>
       </c>
       <c r="C8" s="8">
-        <v>7795.7768333334798</v>
+        <v>3741.5374166667398</v>
       </c>
       <c r="D8" s="8">
-        <v>2937.1819999996801</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>7699.49550000001</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>68.332749999943104</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H8" s="8" t="str">
-        <v>-</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <v>18.885166666644999</v>
-      </c>
-      <c r="K8" s="8" t="str">
-        <v>-</v>
+        <v>66.370750000001806</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
       </c>
       <c r="L8" s="8">
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <v>436.76216666656501</v>
-      </c>
-      <c r="N8" s="8">
         <v>0</v>
+      </c>
+      <c r="N8" s="8" t="str">
+        <v>-</v>
       </c>
       <c r="O8" s="8" t="str">
         <v>-</v>
@@ -27483,21 +27332,13 @@
       <c r="Q8" s="8">
         <v>0</v>
       </c>
-      <c r="R8" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S8" s="8">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
@@ -27513,46 +27354,46 @@
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
-        <v>34413.104750000493</v>
+        <v>2115.1167500000702</v>
       </c>
       <c r="B9" s="1">
-        <v>44317</v>
+        <v>44338</v>
       </c>
       <c r="C9" s="8">
-        <v>12790.1474166669</v>
+        <v>33.276000000070702</v>
       </c>
       <c r="D9" s="8">
-        <v>905.49258333339799</v>
+        <v>791.01858333343898</v>
       </c>
       <c r="E9" s="8">
-        <v>3902.6490833333801</v>
+        <v>173.818499999935</v>
       </c>
       <c r="F9" s="8">
-        <v>15097.3028333333</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H9" s="8" t="str">
-        <v>-</v>
+        <v>26.1636666666599</v>
+      </c>
+      <c r="G9" s="8">
+        <v>679.13558333332105</v>
+      </c>
+      <c r="H9" s="8">
+        <v>347.02549999998803</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>926.56900000001701</v>
-      </c>
-      <c r="K9" s="8" t="str">
+        <v>64.678916666656704</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="str">
         <v>-</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1.7785000000149001</v>
-      </c>
-      <c r="M9" s="8">
-        <v>498.60516666679098</v>
-      </c>
-      <c r="N9" s="8">
-        <v>290.56016666669098</v>
       </c>
       <c r="O9" s="8" t="str">
         <v>-</v>
@@ -27563,21 +27404,13 @@
       <c r="Q9" s="8">
         <v>0</v>
       </c>
-      <c r="R9" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S9" s="8">
+      <c r="R9" s="8">
         <v>0</v>
       </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
@@ -27593,28 +27426,28 @@
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
-        <v>18015.126833333794</v>
+        <v>799.36741666658713</v>
       </c>
       <c r="B10" s="1">
-        <v>44318</v>
+        <v>44339</v>
       </c>
       <c r="C10" s="8">
-        <v>10721.4709166671</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
-        <v>5679.3550833334402</v>
+        <v>726.04941666661705</v>
       </c>
       <c r="E10" s="8">
-        <v>666.75158333338902</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>843.71949999994797</v>
-      </c>
-      <c r="G10" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H10" s="8" t="str">
-        <v>-</v>
+        <v>17.091083333361802</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -27622,42 +27455,34 @@
       <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="str">
-        <v>-</v>
+      <c r="K10" s="8">
+        <v>0</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
       </c>
       <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
+        <v>56.226916666608297</v>
+      </c>
+      <c r="N10" s="8" t="str">
+        <v>-</v>
       </c>
       <c r="O10" s="8" t="str">
         <v>-</v>
       </c>
       <c r="P10" s="8">
-        <v>103.829749999917</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="8">
         <v>0</v>
       </c>
-      <c r="R10" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S10" s="8">
+      <c r="R10" s="8">
         <v>0</v>
       </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -27673,25 +27498,25 @@
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
-        <v>24145.552083333419</v>
+        <v>2212.6924166670015</v>
       </c>
       <c r="B11" s="1">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="C11" s="8">
-        <v>9025.2305833335195</v>
+        <v>1765.69125000026</v>
       </c>
       <c r="D11" s="8">
-        <v>11097.0964999999</v>
+        <v>17.7092500000144</v>
       </c>
       <c r="E11" s="8">
-        <v>2764.72641666664</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>476.79333333339298</v>
+        <v>429.29191666672699</v>
       </c>
       <c r="G11" s="8">
-        <v>536.468583333335</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -27702,17 +27527,17 @@
       <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="L11" s="8" t="str">
-        <v>-</v>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
       </c>
       <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="8">
-        <v>0</v>
+      <c r="N11" s="8" t="str">
+        <v>-</v>
       </c>
       <c r="O11" s="8" t="str">
         <v>-</v>
@@ -27721,23 +27546,15 @@
         <v>0</v>
       </c>
       <c r="Q11" s="8">
-        <v>245.23666666663399</v>
+        <v>0</v>
       </c>
       <c r="R11" s="8">
         <v>0</v>
       </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
@@ -27753,46 +27570,46 @@
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
-        <v>21067.368416667003</v>
+        <v>1965.2891666666758</v>
       </c>
       <c r="B12" s="1">
-        <v>44320</v>
+        <v>44341</v>
       </c>
       <c r="C12" s="8">
-        <v>9017.4498333338397</v>
+        <v>190.95083333342299</v>
       </c>
       <c r="D12" s="8">
-        <v>5794.3232499998903</v>
+        <v>1503.3496666666399</v>
       </c>
       <c r="E12" s="8">
-        <v>1584.3593333333799</v>
+        <v>240.357666666619</v>
       </c>
       <c r="F12" s="8">
-        <v>1561.2771666666299</v>
+        <v>20.286583333334399</v>
       </c>
       <c r="G12" s="8">
-        <v>1300.4789166666101</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>1222.50708333335</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <v>7.4392499999958002</v>
-      </c>
-      <c r="K12" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10.3444166666595</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8" t="str">
         <v>-</v>
-      </c>
-      <c r="L12" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="M12" s="8">
-        <v>42.424916666699502</v>
-      </c>
-      <c r="N12" s="8">
-        <v>424.59833333332699</v>
       </c>
       <c r="O12" s="8" t="str">
         <v>-</v>
@@ -27804,20 +27621,12 @@
         <v>0</v>
       </c>
       <c r="R12" s="8">
-        <v>112.51033333328</v>
-      </c>
-      <c r="S12" s="8">
         <v>0</v>
       </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -27833,46 +27642,46 @@
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
-        <v>20906.630666666591</v>
+        <v>2424.8029166665469</v>
       </c>
       <c r="B13" s="1">
-        <v>44321</v>
+        <v>44342</v>
       </c>
       <c r="C13" s="8">
-        <v>8013.5511666665498</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8">
-        <v>8927.9281666665302</v>
+        <v>995.68375000002504</v>
       </c>
       <c r="E13" s="8">
-        <v>456.771499999973</v>
-      </c>
-      <c r="F13" s="8" t="str">
-        <v>-</v>
+        <v>1053.1411666665199</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>2622.82933333335</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>58.620833333348799</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>794.820833333476</v>
-      </c>
-      <c r="K13" s="8" t="str">
+        <v>375.978000000002</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8" t="str">
         <v>-</v>
-      </c>
-      <c r="L13" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="M13" s="8">
-        <v>4.0743333332939002</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
       </c>
       <c r="O13" s="8" t="str">
         <v>-</v>
@@ -27884,20 +27693,12 @@
         <v>0</v>
       </c>
       <c r="R13" s="8">
-        <v>28.034500000066998</v>
-      </c>
-      <c r="S13" s="8">
         <v>0</v>
       </c>
-      <c r="T13" s="8">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
@@ -27913,46 +27714,46 @@
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
-        <v>13819.66908333326</v>
+        <v>280.22050000005299</v>
       </c>
       <c r="B14" s="1">
-        <v>44322</v>
+        <v>44343</v>
       </c>
       <c r="C14" s="8">
-        <v>5649.2933333333303</v>
+        <v>10.8425833333749</v>
       </c>
       <c r="D14" s="8">
-        <v>5634.1717499999704</v>
+        <v>154.05083333334099</v>
       </c>
       <c r="E14" s="8">
-        <v>226.83808333333499</v>
-      </c>
-      <c r="F14" s="8" t="str">
-        <v>-</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>18.3462500000023</v>
       </c>
       <c r="G14" s="8">
-        <v>1185.89175</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>326.51675000006799</v>
+        <v>96.9808333333348</v>
       </c>
       <c r="I14" s="8">
-        <v>573.331833333242</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8">
-        <v>142.66616666666201</v>
+        <v>0</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
       </c>
-      <c r="L14" s="8" t="str">
-        <v>-</v>
+      <c r="L14" s="8">
+        <v>0</v>
       </c>
       <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="8">
-        <v>0</v>
+      <c r="N14" s="8" t="str">
+        <v>-</v>
       </c>
       <c r="O14" s="8" t="str">
         <v>-</v>
@@ -27964,20 +27765,12 @@
         <v>0</v>
       </c>
       <c r="R14" s="8">
-        <v>80.959416666650199</v>
-      </c>
-      <c r="S14" s="8">
         <v>0</v>
       </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="8">
-        <v>0</v>
-      </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
@@ -27993,52 +27786,52 @@
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
-        <v>27339.039916667745</v>
+        <v>3453.7570000000646</v>
       </c>
       <c r="B15" s="1">
-        <v>44323</v>
+        <v>44344</v>
       </c>
       <c r="C15" s="8">
-        <v>9274.4045000004098</v>
+        <v>1253.2681666667299</v>
       </c>
       <c r="D15" s="8">
-        <v>13022.9180000006</v>
+        <v>1620.06149999998</v>
       </c>
       <c r="E15" s="8">
-        <v>535.25658333333502</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <v>-</v>
+        <v>41.077833333285497</v>
+      </c>
+      <c r="F15" s="8">
+        <v>240.10408333333899</v>
       </c>
       <c r="G15" s="8">
-        <v>11.601416666671801</v>
+        <v>92.235416666720994</v>
       </c>
       <c r="H15" s="8">
-        <v>2206.9515833333398</v>
+        <v>207.010000000009</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
       </c>
       <c r="J15" s="8">
-        <v>87.947583333356306</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
-        <v>2024.0489999999099</v>
-      </c>
-      <c r="L15" s="8" t="str">
-        <v>-</v>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
       </c>
       <c r="M15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="8">
-        <v>0</v>
+      <c r="N15" s="8" t="str">
+        <v>-</v>
       </c>
       <c r="O15" s="8" t="str">
         <v>-</v>
       </c>
       <c r="P15" s="8">
-        <v>175.91125000012099</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <v>0</v>
@@ -28046,18 +27839,10 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
-      <c r="S15" s="8">
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
-        <v>0</v>
-      </c>
-      <c r="U15" s="8">
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
-        <v>0</v>
-      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
@@ -28073,43 +27858,43 @@
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM(C16:Z16)</f>
+        <v>194.19049999999601</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44345</v>
+      </c>
+      <c r="C16" s="8">
         <v>0</v>
       </c>
-      <c r="B16" s="1">
-        <v>44324</v>
-      </c>
-      <c r="C16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="E16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="F16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="G16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="H16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="I16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="J16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="K16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="L16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="M16" s="8" t="str">
-        <v>-</v>
+      <c r="D16" s="8">
+        <v>194.19049999999601</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
       </c>
       <c r="N16" s="8" t="str">
         <v>-</v>
@@ -28117,27 +27902,19 @@
       <c r="O16" s="8" t="str">
         <v>-</v>
       </c>
-      <c r="P16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="Q16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="R16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="S16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="T16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="U16" s="8" t="str">
-        <v>-</v>
-      </c>
-      <c r="V16" s="8" t="str">
-        <v>-</v>
-      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
@@ -28207,9 +27984,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="H19" s="7"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -28232,10 +28007,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="6">
-        <f>AVERAGE(A3:A15)</f>
-        <v>17546.90897756417</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -28591,77 +28363,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5AF314-03DB-4E49-A9B1-595278B71B39}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="34" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="str" cm="1">
-        <f t="array" ref="A1:O16">[2]KDRPerDay!$A$1:$O$16</f>
+        <f t="array" ref="A1:Q16">[2]KDRPerDay!$A$1:$Q$16</f>
         <v>Total KD</v>
       </c>
       <c r="B1" s="10" t="str">
-        <v>8,7 (130/15)</v>
+        <v>9,4 (47/5)</v>
       </c>
       <c r="C1" s="10" t="str">
-        <v>7,3 (102/14)</v>
+        <v>3,0 (6/2)</v>
       </c>
       <c r="D1" s="10" t="str">
-        <v>2,8 (83/30)</v>
+        <v>2,3 (1138/489)</v>
       </c>
       <c r="E1" s="10" t="str">
-        <v>2,5 (4414/1781)</v>
+        <v>2,0 (24/12)</v>
       </c>
       <c r="F1" s="10" t="str">
-        <v>2,3 (7147/3137)</v>
+        <v>2,0 (32/16)</v>
       </c>
       <c r="G1" s="10" t="str">
-        <v>1,8 (868/483)</v>
+        <v>1,9 (811/431)</v>
       </c>
       <c r="H1" s="10" t="str">
-        <v>1,7 (114/66)</v>
+        <v>1,9 (60/32)</v>
       </c>
       <c r="I1" s="10" t="str">
-        <v>1,6 (38/24)</v>
+        <v>1,7 (327/191)</v>
       </c>
       <c r="J1" s="10" t="str">
-        <v>1,6 (120/76)</v>
+        <v>1,6 (16/10)</v>
       </c>
       <c r="K1" s="10" t="str">
-        <v>1,5 (23/15)</v>
+        <v>1,3 (78/62)</v>
       </c>
       <c r="L1" s="10" t="str">
-        <v>1,5 (62/42)</v>
+        <v>0,9 (83/88)</v>
       </c>
       <c r="M1" s="10" t="str">
-        <v>1,4 (161/115)</v>
+        <v>0,0 (0/0)</v>
       </c>
       <c r="N1" s="10" t="str">
-        <v>1,3 (397/302)</v>
+        <v>0,0 (0/0)</v>
       </c>
       <c r="O1" s="10" t="str">
-        <v>1,3 (295/228)</v>
-      </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+        <v>0,0 (0/0)</v>
+      </c>
+      <c r="P1" s="10" t="str">
+        <v>0,0 (0/0)</v>
+      </c>
+      <c r="Q1" s="10" t="str">
+        <v>0,0 (0/0)</v>
+      </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
@@ -28686,93 +28465,103 @@
         <v>Tankking</v>
       </c>
       <c r="C2" s="3" t="str">
-        <v>dynamite</v>
+        <v>V</v>
       </c>
       <c r="D2" s="3" t="str">
-        <v>V</v>
+        <v>ATTV_BRO</v>
       </c>
       <c r="E2" s="3" t="str">
-        <v>ATTV_BRO</v>
+        <v>Ari_lollipop</v>
       </c>
       <c r="F2" s="3" t="str">
-        <v>cube</v>
+        <v>King21345</v>
       </c>
       <c r="G2" s="3" t="str">
         <v>Doctor Surviv</v>
       </c>
       <c r="H2" s="3" t="str">
-        <v>Ari_lollipop</v>
+        <v>BEST OF DA BEST</v>
       </c>
       <c r="I2" s="3" t="str">
-        <v>King21345</v>
+        <v>gamergod</v>
       </c>
       <c r="J2" s="3" t="str">
-        <v>Visitor</v>
+        <v>jjboi</v>
       </c>
       <c r="K2" s="3" t="str">
+        <v>Benjamin1124</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <v>hi whats up</v>
+      </c>
+      <c r="M2" s="3" t="str">
+        <v>dynamite</v>
+      </c>
+      <c r="N2" s="3" t="str">
+        <v>Spk_JK</v>
+      </c>
+      <c r="O2" s="3" t="str">
         <v>Aqua</v>
       </c>
-      <c r="L2" s="3" t="str">
-        <v>Jason12345</v>
-      </c>
-      <c r="M2" s="3" t="str">
-        <v>Spk_JK</v>
-      </c>
-      <c r="N2" s="3" t="str">
-        <v>Jayden_funeez</v>
-      </c>
-      <c r="O2" s="3" t="str">
-        <v>Benjamin1124</v>
+      <c r="P2" s="3" t="str">
+        <v>kangaroo</v>
+      </c>
+      <c r="Q2" s="3" t="str">
+        <v>Kungflu</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>44311</v>
+        <v>44332</v>
       </c>
       <c r="B3" s="9" t="str">
-        <v>6,5(98/15)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="C3" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="D3" s="9" t="str">
-        <v>-(/)</v>
+        <v>1,8(27/15)</v>
       </c>
       <c r="E3" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="F3" s="9" t="str">
-        <v>1,6(539/344)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G3" s="9" t="str">
-        <v>-(/)</v>
+        <v>1,9(21/11)</v>
       </c>
       <c r="H3" s="9" t="str">
-        <v>-(/)</v>
+        <v>2,0(12/6)</v>
       </c>
       <c r="I3" s="9" t="str">
-        <v>-(/)</v>
+        <v>2,8(22/8)</v>
       </c>
       <c r="J3" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="K3" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="L3" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="M3" s="9" t="str">
-        <v>0,0(0/0)</v>
+        <v>-(/)</v>
       </c>
       <c r="N3" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="O3" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P3" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q3" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -28791,52 +28580,56 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="B4" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="C4" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <v>2,4(134/57)</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <v>1,1(11/10)</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <v>2,0(114/56)</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <v>0,0(0/1)</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <v>2,0(20/10)</v>
+      </c>
+      <c r="J4" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <v>0,7(4/6)</v>
+      </c>
+      <c r="L4" s="9" t="str">
+        <v>1,0(34/33)</v>
+      </c>
+      <c r="M4" s="9" t="str">
         <v>-(/)</v>
-      </c>
-      <c r="D4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <v>1,9(370/197)</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="I4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="J4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="K4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="L4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="M4" s="9" t="str">
-        <v>0,0(0/0)</v>
       </c>
       <c r="N4" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="O4" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P4" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q4" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -28855,7 +28648,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="B5" s="9" t="str">
         <v>0,0(0/0)</v>
@@ -28864,43 +28657,47 @@
         <v>0,0(0/0)</v>
       </c>
       <c r="D5" s="9" t="str">
-        <v>13,0(13/1)</v>
+        <v>5,0(5/1)</v>
       </c>
       <c r="E5" s="9" t="str">
-        <v>2,9(50/17)</v>
+        <v>12,0(12/1)</v>
       </c>
       <c r="F5" s="9" t="str">
-        <v>1,7(396/229)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G5" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,7(4/6)</v>
       </c>
       <c r="H5" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="I5" s="9" t="str">
-        <v>0,0(0/0)</v>
+        <v>1,7(129/78)</v>
       </c>
       <c r="J5" s="9" t="str">
+        <v>1,6(16/10)</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <v>1,8(23/13)</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <v>0,7(2/3)</v>
+      </c>
+      <c r="M5" s="9" t="str">
         <v>-(/)</v>
-      </c>
-      <c r="K5" s="9" t="str">
-        <v>0,0(0/0)</v>
-      </c>
-      <c r="L5" s="9" t="str">
-        <v>1,5(62/42)</v>
-      </c>
-      <c r="M5" s="9" t="str">
-        <v>0,0(0/0)</v>
       </c>
       <c r="N5" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="O5" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P5" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q5" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -28919,40 +28716,40 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="B6" s="9" t="str">
+        <v>7,8(31/4)</v>
+      </c>
+      <c r="C6" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="C6" s="9" t="str">
-        <v>6,1(49/8)</v>
-      </c>
       <c r="D6" s="9" t="str">
-        <v>2,1(25/12)</v>
+        <v>1,7(137/80)</v>
       </c>
       <c r="E6" s="9" t="str">
-        <v>2,4(330/140)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="F6" s="9" t="str">
-        <v>2,0(695/348)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G6" s="9" t="str">
-        <v>1,7(107/63)</v>
+        <v>1,9(134/70)</v>
       </c>
       <c r="H6" s="9" t="str">
-        <v>2,0(36/18)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="I6" s="9" t="str">
-        <v>1,9(17/9)</v>
+        <v>2,3(44/19)</v>
       </c>
       <c r="J6" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="K6" s="9" t="str">
-        <v>0,8(3/4)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="L6" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,5(8/15)</v>
       </c>
       <c r="M6" s="9" t="str">
         <v>-(/)</v>
@@ -28961,10 +28758,14 @@
         <v>-(/)</v>
       </c>
       <c r="O6" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P6" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q6" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -28983,40 +28784,40 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>44315</v>
+        <v>44336</v>
       </c>
       <c r="B7" s="9" t="str">
+        <v>16,0(16/1)</v>
+      </c>
+      <c r="C7" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="C7" s="9" t="str">
-        <v>8,8(53/6)</v>
-      </c>
       <c r="D7" s="9" t="str">
+        <v>2,3(355/155)</v>
+      </c>
+      <c r="E7" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <v>3,0(229/77)</v>
-      </c>
       <c r="F7" s="9" t="str">
-        <v>2,5(342/136)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G7" s="9" t="str">
-        <v>1,3(55/41)</v>
+        <v>1,9(40/21)</v>
       </c>
       <c r="H7" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="I7" s="9" t="str">
+        <v>2,3(14/6)</v>
+      </c>
+      <c r="J7" s="9" t="str">
         <v>0,0(0/0)</v>
-      </c>
-      <c r="J7" s="9" t="str">
-        <v>-(/)</v>
       </c>
       <c r="K7" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="L7" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="M7" s="9" t="str">
         <v>-(/)</v>
@@ -29025,10 +28826,14 @@
         <v>-(/)</v>
       </c>
       <c r="O7" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P7" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q7" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -29047,7 +28852,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>44316</v>
+        <v>44337</v>
       </c>
       <c r="B8" s="9" t="str">
         <v>0,0(0/0)</v>
@@ -29056,43 +28861,47 @@
         <v>0,0(0/0)</v>
       </c>
       <c r="D8" s="9" t="str">
+        <v>2,8(258/92)</v>
+      </c>
+      <c r="E8" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <v>2,8(226/80)</v>
-      </c>
       <c r="F8" s="9" t="str">
-        <v>2,0(523/257)</v>
+        <v>1,4(7/5)</v>
       </c>
       <c r="G8" s="9" t="str">
-        <v>1,1(12/11)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="H8" s="9" t="str">
-        <v>2,0(38/19)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="I8" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="J8" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="K8" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="L8" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="M8" s="9" t="str">
         <v>-(/)</v>
-      </c>
-      <c r="M8" s="9" t="str">
-        <v>0,4(4/9)</v>
       </c>
       <c r="N8" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="O8" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P8" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q8" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -29111,7 +28920,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>44317</v>
+        <v>44338</v>
       </c>
       <c r="B9" s="9" t="str">
         <v>0,0(0/0)</v>
@@ -29120,43 +28929,47 @@
         <v>0,0(0/0)</v>
       </c>
       <c r="D9" s="9" t="str">
-        <v>2,2(22/10)</v>
+        <v>1,0(3/3)</v>
       </c>
       <c r="E9" s="9" t="str">
-        <v>2,2(67/30)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="F9" s="9" t="str">
-        <v>3,5(848/244)</v>
+        <v>1,2(6/5)</v>
       </c>
       <c r="G9" s="9" t="str">
-        <v>2,2(257/116)</v>
+        <v>1,6(81/51)</v>
       </c>
       <c r="H9" s="9" t="str">
-        <v>1,4(35/25)</v>
+        <v>1,6(38/24)</v>
       </c>
       <c r="I9" s="9" t="str">
+        <v>2,0(16/8)</v>
+      </c>
+      <c r="J9" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="K9" s="9" t="str">
+        <v>0,7(21/29)</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <v>3,0(3/1)</v>
+      </c>
+      <c r="M9" s="9" t="str">
         <v>-(/)</v>
-      </c>
-      <c r="K9" s="9" t="str">
-        <v>0,0(0/0)</v>
-      </c>
-      <c r="L9" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="M9" s="9" t="str">
-        <v>0,7(4/6)</v>
       </c>
       <c r="N9" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="O9" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P9" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q9" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -29175,52 +28988,56 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>44318</v>
+        <v>44339</v>
       </c>
       <c r="B10" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="C10" s="9" t="str">
-        <v>0,0(0/0)</v>
+        <v>3,0(6/2)</v>
       </c>
       <c r="D10" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="E10" s="9" t="str">
-        <v>2,3(377/161)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="F10" s="9" t="str">
-        <v>2,2(747/346)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G10" s="9" t="str">
-        <v>1,5(49/32)</v>
+        <v>1,7(52/30)</v>
       </c>
       <c r="H10" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="I10" s="9" t="str">
-        <v>1,2(10/8)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="J10" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="K10" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="L10" s="9" t="str">
+        <v>0,5(1/2)</v>
+      </c>
+      <c r="M10" s="9" t="str">
         <v>-(/)</v>
-      </c>
-      <c r="M10" s="9" t="str">
-        <v>1,0(42/41)</v>
       </c>
       <c r="N10" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="O10" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P10" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q10" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -29239,25 +29056,25 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="B11" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="C11" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="D11" s="9" t="str">
+        <v>3,0(112/37)</v>
+      </c>
+      <c r="E11" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <v>2,7(764/281)</v>
-      </c>
       <c r="F11" s="9" t="str">
-        <v>3,0(589/195)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G11" s="9" t="str">
-        <v>2,2(187/86)</v>
+        <v>2,0(2/1)</v>
       </c>
       <c r="H11" s="9" t="str">
         <v>0,0(0/0)</v>
@@ -29266,25 +29083,29 @@
         <v>0,0(0/0)</v>
       </c>
       <c r="J11" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <v>0,8(19/24)</v>
+      </c>
+      <c r="M11" s="9" t="str">
         <v>-(/)</v>
       </c>
-      <c r="K11" s="9" t="str">
-        <v>1,8(20/11)</v>
-      </c>
-      <c r="L11" s="9" t="str">
+      <c r="N11" s="9" t="str">
         <v>-(/)</v>
-      </c>
-      <c r="M11" s="9" t="str">
-        <v>1,6(26/16)</v>
-      </c>
-      <c r="N11" s="9" t="str">
-        <v>1,3(37/28)</v>
       </c>
       <c r="O11" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="P11" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q11" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -29303,52 +29124,56 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>44320</v>
+        <v>44341</v>
       </c>
       <c r="B12" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="C12" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="D12" s="9" t="str">
-        <v>3,3(23/7)</v>
+        <v>1,9(15/8)</v>
       </c>
       <c r="E12" s="9" t="str">
-        <v>2,9(371/126)</v>
+        <v>1,0(1/1)</v>
       </c>
       <c r="F12" s="9" t="str">
-        <v>2,3(654/279)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G12" s="9" t="str">
-        <v>1,6(110/70)</v>
+        <v>2,3(132/58)</v>
       </c>
       <c r="H12" s="9" t="str">
-        <v>5,0(5/1)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="I12" s="9" t="str">
+        <v>0,5(12/25)</v>
+      </c>
+      <c r="J12" s="9" t="str">
         <v>0,0(0/0)</v>
-      </c>
-      <c r="J12" s="9" t="str">
-        <v>-(/)</v>
       </c>
       <c r="K12" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="L12" s="9" t="str">
+        <v>2,0(2/0)</v>
+      </c>
+      <c r="M12" s="9" t="str">
         <v>-(/)</v>
       </c>
-      <c r="M12" s="9" t="str">
-        <v>2,0(85/43)</v>
-      </c>
       <c r="N12" s="9" t="str">
-        <v>1,3(100/78)</v>
+        <v>-(/)</v>
       </c>
       <c r="O12" s="9" t="str">
-        <v>1,6(100/64)</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P12" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q12" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -29367,52 +29192,56 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>44321</v>
+        <v>44342</v>
       </c>
       <c r="B13" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="C13" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="D13" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="E13" s="9" t="str">
-        <v>2,1(662/312)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="F13" s="9" t="str">
-        <v>2,9(524/181)</v>
+        <v>3,2(19/6)</v>
       </c>
       <c r="G13" s="9" t="str">
-        <v>1,2(32/27)</v>
+        <v>1,8(70/38)</v>
       </c>
       <c r="H13" s="9" t="str">
-        <v>0,0(0/3)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="I13" s="9" t="str">
+        <v>1,8(66/37)</v>
+      </c>
+      <c r="J13" s="9" t="str">
         <v>0,0(0/0)</v>
-      </c>
-      <c r="J13" s="9" t="str">
-        <v>-(/)</v>
       </c>
       <c r="K13" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="L13" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="M13" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="N13" s="9" t="str">
-        <v>1,5(190/127)</v>
+        <v>-(/)</v>
       </c>
       <c r="O13" s="9" t="str">
-        <v>0,2(2/8)</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P13" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q13" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -29431,25 +29260,25 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>44322</v>
+        <v>44343</v>
       </c>
       <c r="B14" s="9" t="str">
-        <v>32,0(32/0)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="C14" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="D14" s="9" t="str">
+        <v>0,0(0/2)</v>
+      </c>
+      <c r="E14" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="E14" s="9" t="str">
-        <v>2,4(409/171)</v>
-      </c>
       <c r="F14" s="9" t="str">
-        <v>2,3(369/161)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G14" s="9" t="str">
-        <v>1,5(22/15)</v>
+        <v>0,8(14/18)</v>
       </c>
       <c r="H14" s="9" t="str">
         <v>0,0(0/0)</v>
@@ -29461,22 +29290,26 @@
         <v>0,0(0/0)</v>
       </c>
       <c r="K14" s="9" t="str">
-        <v>0,0(0/0)</v>
+        <v>1,2(10/8)</v>
       </c>
       <c r="L14" s="9" t="str">
-        <v>-(/)</v>
+        <v>1,0(2/2)</v>
       </c>
       <c r="M14" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="N14" s="9" t="str">
-        <v>1,0(69/67)</v>
+        <v>-(/)</v>
       </c>
       <c r="O14" s="9" t="str">
-        <v>0,6(23/36)</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P14" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q14" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -29495,52 +29328,56 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>44323</v>
+        <v>44344</v>
       </c>
       <c r="B15" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
       <c r="C15" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="D15" s="9" t="str">
+        <v>2,4(92/39)</v>
+      </c>
+      <c r="E15" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="E15" s="9" t="str">
-        <v>2,4(929/386)</v>
-      </c>
       <c r="F15" s="9" t="str">
-        <v>2,5(551/220)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G15" s="9" t="str">
-        <v>1,7(37/22)</v>
+        <v>2,1(133/63)</v>
       </c>
       <c r="H15" s="9" t="str">
+        <v>10,0(10/1)</v>
+      </c>
+      <c r="I15" s="9" t="str">
+        <v>4,0(4/0)</v>
+      </c>
+      <c r="J15" s="9" t="str">
         <v>0,0(0/0)</v>
       </c>
-      <c r="I15" s="9" t="str">
-        <v>1,6(11/7)</v>
-      </c>
-      <c r="J15" s="9" t="str">
-        <v>1,6(120/76)</v>
-      </c>
       <c r="K15" s="9" t="str">
-        <v>0,0(0/0)</v>
+        <v>3,3(20/6)</v>
       </c>
       <c r="L15" s="9" t="str">
-        <v>-(/)</v>
+        <v>1,5(12/8)</v>
       </c>
       <c r="M15" s="9" t="str">
         <v>-(/)</v>
       </c>
       <c r="N15" s="9" t="str">
-        <v>0,5(1/2)</v>
+        <v>-(/)</v>
       </c>
       <c r="O15" s="9" t="str">
-        <v>1,4(170/120)</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P15" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q15" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -29559,40 +29396,40 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>44324</v>
+        <v>44345</v>
       </c>
       <c r="B16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="C16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="D16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="E16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="F16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="G16" s="9" t="str">
-        <v>-(/)</v>
+        <v>1,8(14/8)</v>
       </c>
       <c r="H16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="I16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="J16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="K16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="L16" s="9" t="str">
-        <v>-(/)</v>
+        <v>0,0(0/0)</v>
       </c>
       <c r="M16" s="9" t="str">
         <v>-(/)</v>
@@ -29601,10 +29438,14 @@
         <v>-(/)</v>
       </c>
       <c r="O16" s="9" t="str">
-        <v>-(/)</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="P16" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
+      <c r="Q16" s="9" t="str">
+        <v>0,0(0/0)</v>
+      </c>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
